--- a/Leaflet/DataRegionInfo.xlsx
+++ b/Leaflet/DataRegionInfo.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xufe\Dropbox\Rpg\Leaflet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\Leaflet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FF16BF-3B2F-4EDA-A70B-34327DEA0241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6316739-34CA-4822-B782-726C52537B23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="7455" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="120">
   <si>
     <t>Name</t>
   </si>
@@ -101,9 +102,6 @@
     <t>Dunstspitzen</t>
   </si>
   <si>
-    <t>Goblinberge</t>
-  </si>
-  <si>
     <t>Atumpet</t>
   </si>
   <si>
@@ -360,6 +358,42 @@
   </si>
   <si>
     <t>Hoch</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>population ca 1200</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>german empire</t>
+  </si>
+  <si>
+    <t>million conv</t>
+  </si>
+  <si>
+    <t>kingdom france</t>
+  </si>
+  <si>
+    <t>austriahungary</t>
+  </si>
+  <si>
+    <t>netherlands</t>
+  </si>
+  <si>
+    <t>sweden</t>
+  </si>
+  <si>
+    <t>Nachtberge</t>
+  </si>
+  <si>
+    <t>Knochenfeldschlucht</t>
+  </si>
+  <si>
+    <t>Gob</t>
   </si>
 </sst>
 </file>
@@ -425,11 +459,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -710,27 +745,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E30" sqref="E30"/>
+      <selection pane="topRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.578125" customWidth="1"/>
+    <col min="2" max="2" width="11.15625" customWidth="1"/>
+    <col min="4" max="4" width="25.26171875" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="21.578125" customWidth="1"/>
+    <col min="10" max="10" width="11.15625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -753,51 +788,54 @@
         <v>11</v>
       </c>
       <c r="H1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" t="s">
         <v>83</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>84</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>85</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>86</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>87</v>
       </c>
-      <c r="M1" t="s">
-        <v>88</v>
-      </c>
       <c r="N1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>6</v>
       </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J2">
         <v>70</v>
@@ -816,33 +854,36 @@
         <v>100</v>
       </c>
       <c r="O2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -857,34 +898,37 @@
         <v>93</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N24" si="0">SUM(J3:M3)</f>
+        <f t="shared" ref="N3:N25" si="0">SUM(J3:M3)</f>
         <v>100</v>
       </c>
       <c r="O3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>8</v>
       </c>
+      <c r="D4">
+        <v>0.2</v>
+      </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -903,24 +947,33 @@
         <v>100</v>
       </c>
       <c r="O4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>9</v>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
       <c r="G5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -939,33 +992,36 @@
         <v>100</v>
       </c>
       <c r="O5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J6">
         <v>3</v>
@@ -984,33 +1040,36 @@
         <v>100</v>
       </c>
       <c r="O6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J7">
         <v>4</v>
@@ -1029,33 +1088,36 @@
         <v>100</v>
       </c>
       <c r="O7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1074,33 +1136,36 @@
         <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J9">
         <v>8</v>
@@ -1119,33 +1184,36 @@
         <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J10">
         <v>92</v>
@@ -1164,30 +1232,33 @@
         <v>100</v>
       </c>
       <c r="O10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="D11">
+        <v>0.2</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J11">
         <v>6</v>
@@ -1206,33 +1277,36 @@
         <v>100</v>
       </c>
       <c r="O11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J12">
         <v>4</v>
@@ -1251,33 +1325,36 @@
         <v>100</v>
       </c>
       <c r="O12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J13">
         <v>54</v>
@@ -1296,33 +1373,36 @@
         <v>100</v>
       </c>
       <c r="O13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
       </c>
       <c r="E14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="G14" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1341,33 +1421,36 @@
         <v>100</v>
       </c>
       <c r="O14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="G15" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J15" s="3">
         <v>16</v>
@@ -1386,33 +1469,36 @@
         <v>100</v>
       </c>
       <c r="O15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1431,27 +1517,36 @@
         <v>100</v>
       </c>
       <c r="O16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>0.04</v>
+      </c>
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
       </c>
       <c r="G17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1470,24 +1565,30 @@
         <v>100</v>
       </c>
       <c r="O17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J18">
         <v>9</v>
@@ -1506,33 +1607,36 @@
         <v>100</v>
       </c>
       <c r="O18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>25000</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1551,33 +1655,36 @@
         <v>100</v>
       </c>
       <c r="O19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <v>0.02</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1596,33 +1703,36 @@
         <v>100</v>
       </c>
       <c r="O20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J21">
         <v>95</v>
@@ -1641,36 +1751,39 @@
         <v>100</v>
       </c>
       <c r="O21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22" t="s">
-        <v>105</v>
-      </c>
-      <c r="F22" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" t="s">
-        <v>73</v>
-      </c>
       <c r="H22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J22">
         <v>92</v>
@@ -1689,33 +1802,36 @@
         <v>100</v>
       </c>
       <c r="O22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" t="s">
-        <v>27</v>
+      <c r="D23">
+        <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J23">
         <v>89</v>
@@ -1734,33 +1850,36 @@
         <v>100</v>
       </c>
       <c r="O23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24">
+        <v>160</v>
+      </c>
+      <c r="E24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" t="s">
         <v>81</v>
       </c>
-      <c r="E24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" t="s">
-        <v>82</v>
-      </c>
       <c r="G24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J24">
         <v>8</v>
@@ -1779,10 +1898,58 @@
         <v>100</v>
       </c>
       <c r="O24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P24" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>98</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="O25" t="s">
+        <v>101</v>
+      </c>
+      <c r="P25" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1790,4 +1957,129 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B84548-F88F-4BC6-939F-956E0A27554A}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="4">
+        <v>540858</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <f>C2*10^6</f>
+        <v>8000000</v>
+      </c>
+      <c r="E2">
+        <f>D2/B2</f>
+        <v>14.791313061838782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1035995</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <f>C3*10^6</f>
+        <v>15000000</v>
+      </c>
+      <c r="E3">
+        <f>D3/B3</f>
+        <v>14.478834357308674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="4">
+        <v>282870</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <f>C4*10^6</f>
+        <v>8000000</v>
+      </c>
+      <c r="E4">
+        <f>D4/B4</f>
+        <v>28.281542758157457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5">
+        <f>33500*0.8</f>
+        <v>26800</v>
+      </c>
+      <c r="C5">
+        <v>0.8</v>
+      </c>
+      <c r="D5">
+        <f>C5*10^6</f>
+        <v>800000</v>
+      </c>
+      <c r="E5">
+        <f>D5/B5</f>
+        <v>29.850746268656717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="4">
+        <v>450295</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <f>C6*10^6</f>
+        <v>500000</v>
+      </c>
+      <c r="E6">
+        <f>D6/B6</f>
+        <v>1.110383193239987</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Leaflet/DataRegionInfo.xlsx
+++ b/Leaflet/DataRegionInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\Leaflet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xufe\Dropbox\Rpg\###Orbis\Leaflet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6316739-34CA-4822-B782-726C52537B23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683A3118-9F01-4ADA-B08E-142F386FDD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="7455" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="120">
   <si>
     <t>Name</t>
   </si>
@@ -749,23 +749,24 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H10" sqref="H10"/>
+      <selection pane="topRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.578125" customWidth="1"/>
-    <col min="2" max="2" width="11.15625" customWidth="1"/>
-    <col min="4" max="4" width="25.26171875" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="21.578125" customWidth="1"/>
-    <col min="10" max="10" width="11.15625" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -815,7 +816,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -860,7 +861,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -908,7 +909,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -953,7 +954,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -998,7 +999,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1046,7 +1047,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1094,7 +1095,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1142,7 +1143,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1190,7 +1191,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1238,7 +1239,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1283,7 +1284,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1331,7 +1332,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1379,7 +1380,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1427,7 +1428,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -1475,7 +1476,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1523,7 +1524,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1571,7 +1572,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>117</v>
       </c>
@@ -1581,14 +1582,20 @@
       <c r="D18">
         <v>1</v>
       </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
       <c r="G18" t="s">
         <v>75</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>71</v>
+      <c r="I18" t="s">
+        <v>75</v>
       </c>
       <c r="J18">
         <v>9</v>
@@ -1613,7 +1620,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1661,7 +1668,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1709,7 +1716,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1757,7 +1764,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -1808,7 +1815,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1856,7 +1863,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -1904,7 +1911,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>118</v>
       </c>
@@ -1967,9 +1974,9 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>110</v>
       </c>
@@ -1983,7 +1990,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -2002,7 +2009,7 @@
         <v>14.791313061838782</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -2021,7 +2028,7 @@
         <v>14.478834357308674</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>114</v>
       </c>
@@ -2040,7 +2047,7 @@
         <v>28.281542758157457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -2060,7 +2067,7 @@
         <v>29.850746268656717</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>116</v>
       </c>

--- a/Leaflet/DataRegionInfo.xlsx
+++ b/Leaflet/DataRegionInfo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xufe\Dropbox\Rpg\###Orbis\Leaflet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\###Orbis\Leaflet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683A3118-9F01-4ADA-B08E-142F386FDD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4080B0-65DB-4548-B7FC-D128E516939C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="122">
   <si>
     <t>Name</t>
   </si>
@@ -394,6 +394,12 @@
   </si>
   <si>
     <t>Gob</t>
+  </si>
+  <si>
+    <t>Skáen</t>
+  </si>
+  <si>
+    <t>Thaler</t>
   </si>
 </sst>
 </file>
@@ -745,11 +751,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E19" sqref="E19"/>
+      <selection pane="topRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1957,6 +1963,26 @@
       </c>
       <c r="P25" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O26" t="s">
+        <v>121</v>
+      </c>
+      <c r="P26" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Leaflet/DataRegionInfo.xlsx
+++ b/Leaflet/DataRegionInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\###Orbis\Leaflet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\###Orbis\Leaflet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4080B0-65DB-4548-B7FC-D128E516939C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284F345C-28F3-4E1E-A76F-FA8D21EC441D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-53" yWindow="-53" windowWidth="27413" windowHeight="13906" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="121">
   <si>
     <t>Name</t>
   </si>
@@ -394,9 +394,6 @@
   </si>
   <si>
     <t>Gob</t>
-  </si>
-  <si>
-    <t>Skáen</t>
   </si>
   <si>
     <t>Thaler</t>
@@ -755,24 +752,24 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B26" sqref="B26"/>
+      <selection pane="topRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.5859375" customWidth="1"/>
+    <col min="2" max="2" width="11.1171875" customWidth="1"/>
+    <col min="4" max="4" width="25.29296875" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="21.5859375" customWidth="1"/>
+    <col min="9" max="9" width="11.87890625" customWidth="1"/>
+    <col min="10" max="10" width="11.1171875" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -822,7 +819,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -867,7 +864,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -915,7 +912,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -960,7 +957,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1005,7 +1002,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1053,7 +1050,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1101,7 +1098,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1149,7 +1146,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1197,7 +1194,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1245,7 +1242,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1290,7 +1287,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1338,7 +1335,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1386,7 +1383,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1434,7 +1431,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -1482,7 +1479,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1530,7 +1527,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1578,7 +1575,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>117</v>
       </c>
@@ -1626,7 +1623,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1674,7 +1671,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1722,7 +1719,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1770,7 +1767,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -1821,7 +1818,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1869,7 +1866,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -1917,7 +1914,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>118</v>
       </c>
@@ -1965,9 +1962,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="G26" t="s">
         <v>69</v>
@@ -1979,7 +1976,7 @@
         <v>75</v>
       </c>
       <c r="O26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P26" t="s">
         <v>107</v>
@@ -2000,9 +1997,9 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>110</v>
       </c>
@@ -2016,7 +2013,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -2035,7 +2032,7 @@
         <v>14.791313061838782</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -2054,7 +2051,7 @@
         <v>14.478834357308674</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>114</v>
       </c>
@@ -2073,7 +2070,7 @@
         <v>28.281542758157457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -2093,7 +2090,7 @@
         <v>29.850746268656717</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>116</v>
       </c>
